--- a/tests/performance/performancetest2.xlsx
+++ b/tests/performance/performancetest2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahbub/Documents/SourceCode/biginteger/tests/performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F0BF7435-290A-0441-8252-14A8524ED15C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4EACF5A8-7E8B-C649-8BAB-D76D9DDA8880}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30220" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1"/>
   </bookViews>
@@ -689,10 +689,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Test1!$D$2:$D$101</c:f>
+              <c:f>Test1!$D$2:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -992,16 +992,40 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15625</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21875</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>28125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test1!$A$2:$A$101</c:f>
+              <c:f>Test1!$A$2:$A$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>5.3999999999999998E-5</c:v>
                 </c:pt>
@@ -1301,6 +1325,30 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.20218900000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.654451</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.88569299999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.290894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.4794360000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.0752350000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.6916339999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.3318779999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.7581049999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,10 +1400,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Test1!$D$2:$D$101</c:f>
+              <c:f>Test1!$D$2:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1655,16 +1703,40 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15625</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21875</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>28125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test1!$B$2:$B$101</c:f>
+              <c:f>Test1!$B$2:$B$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>4.5000000000000003E-5</c:v>
                 </c:pt>
@@ -1964,6 +2036,30 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.31526399999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.64383400000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1693990000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.820692</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6238869999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.5805509999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.6487160000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.8590369999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.2585930000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,10 +2111,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Test1!$D$2:$D$101</c:f>
+              <c:f>Test1!$D$2:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -2318,16 +2414,40 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15625</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21875</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>28125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test1!$C$2:$C$101</c:f>
+              <c:f>Test1!$C$2:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>7.7000000000000001E-5</c:v>
                 </c:pt>
@@ -2627,6 +2747,30 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1.8074399999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4121809999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.4196029999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4219299999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24.620415000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24.821950000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>25.698243999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25.435262000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24.659996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2840,7 @@
         <c:crossAx val="550475247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="2500"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="550475247"/>
@@ -3716,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:D101"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5138,6 +5282,118 @@
         <v>6250</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>0.654451</v>
+      </c>
+      <c r="B102">
+        <v>0.64383400000000002</v>
+      </c>
+      <c r="C102">
+        <v>1.4121809999999999</v>
+      </c>
+      <c r="D102">
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>0.88569299999999995</v>
+      </c>
+      <c r="B103">
+        <v>1.1693990000000001</v>
+      </c>
+      <c r="C103">
+        <v>1.4196029999999999</v>
+      </c>
+      <c r="D103">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1.290894</v>
+      </c>
+      <c r="B104">
+        <v>1.820692</v>
+      </c>
+      <c r="C104">
+        <v>1.4219299999999999</v>
+      </c>
+      <c r="D104">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>3.4794360000000002</v>
+      </c>
+      <c r="B105">
+        <v>2.6238869999999999</v>
+      </c>
+      <c r="C105">
+        <v>24.620415000000001</v>
+      </c>
+      <c r="D105">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>4.0752350000000002</v>
+      </c>
+      <c r="B106">
+        <v>3.5805509999999998</v>
+      </c>
+      <c r="C106">
+        <v>24.821950000000001</v>
+      </c>
+      <c r="D106">
+        <v>21875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4.6916339999999996</v>
+      </c>
+      <c r="B107">
+        <v>4.6487160000000003</v>
+      </c>
+      <c r="C107">
+        <v>25.698243999999999</v>
+      </c>
+      <c r="D107">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>5.3318779999999997</v>
+      </c>
+      <c r="B108">
+        <v>5.8590369999999998</v>
+      </c>
+      <c r="C108">
+        <v>25.435262000000002</v>
+      </c>
+      <c r="D108">
+        <v>28125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>6.7581049999999996</v>
+      </c>
+      <c r="B109">
+        <v>7.2585930000000003</v>
+      </c>
+      <c r="C109">
+        <v>24.659996</v>
+      </c>
+      <c r="D109">
+        <v>31250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
